--- a/src/test/resources/visitLinkTest.xlsx
+++ b/src/test/resources/visitLinkTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A48B6-5F65-46F8-A9FE-987AE0E56AA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FACB52-F8CD-458E-BE9F-66D6D80F07AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>Objekttitel</t>
+  </si>
+  <si>
+    <t>architecturename</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1734,10 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,6 +1971,9 @@
       <c r="A43" t="s">
         <v>66</v>
       </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -2037,7 +2043,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B43:SG44" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C43:SG44 B44" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>$B$1:$XFD$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2302,7 +2308,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
@@ -2774,10 +2780,10 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2973,9 +2979,6 @@
     <row r="27" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="s">
         <v>153</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>169</v>
       </c>
       <c r="C27" s="124" t="s">
         <v>170</v>

--- a/src/test/resources/visitLinkTest.xlsx
+++ b/src/test/resources/visitLinkTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FACB52-F8CD-458E-BE9F-66D6D80F07AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887085D-83C6-4F8B-9ACC-7EB64F5B19DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -524,12 +524,6 @@
     <t>Abbildung</t>
   </si>
   <si>
-    <t>id2</t>
-  </si>
-  <si>
-    <t>id1</t>
-  </si>
-  <si>
     <t>KN</t>
   </si>
   <si>
@@ -635,9 +629,6 @@
     <t>Architecture1</t>
   </si>
   <si>
-    <t>id5</t>
-  </si>
-  <si>
     <t>activitytitel</t>
   </si>
   <si>
@@ -645,12 +636,6 @@
   </si>
   <si>
     <t>instiname</t>
-  </si>
-  <si>
-    <t>id6</t>
-  </si>
-  <si>
-    <t>id7</t>
   </si>
   <si>
     <t>Object1</t>
@@ -678,28 +663,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -987,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1002,9 +972,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1015,9 +984,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1031,38 +1000,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1070,17 +1038,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1090,13 +1058,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1104,39 +1071,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1457,7 +1423,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,27 +1455,27 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="137"/>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="137"/>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1550,13 +1516,13 @@
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="137"/>
     </row>
     <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="141"/>
+      <c r="C17" s="138"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1574,29 +1540,29 @@
           </x14:formula1>
           <xm:sqref>B9:SG9</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:SG16</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
+            <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B10:SG10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B11:SG11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B12:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1705,23 +1671,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:SG15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:SG7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:SG3 B11:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:SG15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1731,13 +1697,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,306 +1711,298 @@
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>202</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:1" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:1" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C43:SG44 B44" xr:uid="{00000000-0002-0000-0200-00000E000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="C42:SG43 B43" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,43 +2013,43 @@
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:SG3</xm:sqref>
+          <xm:sqref>B2:SG2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:SG13</xm:sqref>
+          <xm:sqref>B12:SG12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B45:SG45 B38:SG40 B23:SG25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B46:SG46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B51:SG51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B45:SG45 B36:SG38 B21:SG23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B47:SG47</xm:sqref>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B44:SG44 B20:SG22 B35:SG37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
+            <xm:f>Object!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B47:SG47 B54:SG54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2115,23 +2073,23 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:1" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2140,23 +2098,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2185,18 +2143,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2205,43 +2163,43 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2255,47 +2213,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13:SG14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22:SG22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24:SG24</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
+            <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B7:SG7 B23:SG23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:SG14</xm:sqref>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:SG21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B20:SG20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2305,13 +2263,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,370 +2277,359 @@
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+    <row r="4" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140" t="s">
+    <row r="5" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
-        <v>211</v>
+    <row r="8" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="138" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147" t="s">
+    <row r="12" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+    <row r="13" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="137" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140" t="s">
+    <row r="14" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148" t="s">
+    <row r="15" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="144" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+    <row r="16" spans="1:3" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+    <row r="17" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="130" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="133" t="s">
+    <row r="18" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="130" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
+    <row r="19" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140" t="s">
+    <row r="20" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="137" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="140" t="s">
+    <row r="21" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="137" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
+    <row r="22" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="138" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
+    <row r="23" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="143" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="140" t="s">
+    <row r="24" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="141" t="s">
+    <row r="25" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="138" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+    <row r="26" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140" t="s">
+    <row r="27" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140" t="s">
+    <row r="28" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="140" t="s">
+    <row r="29" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="140" t="s">
+    <row r="30" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="141" t="s">
+    <row r="31" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="138" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="147" t="s">
+    <row r="36" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="143" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148" t="s">
+    <row r="37" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="144" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="133" t="s">
+    <row r="38" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="130" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+    <row r="41" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="130" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="140" t="s">
+    <row r="42" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
+    <row r="44" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="140" t="s">
+    <row r="45" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="137" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="141" t="s">
+    <row r="46" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="138" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147" t="s">
+    <row r="55" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="143" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="140" t="s">
+    <row r="56" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="137" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="141" t="s">
+    <row r="57" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:SG11" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B9:SG10" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:SG14 B46:SG46 B44:SG44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20:SG20 B51:SG51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B32:SG32 B34:SG34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B48:SG48 B52:SG52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B56:SG56</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:SG14 B50:SG50 B46:SG46 B44:SG44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:SG15 B47:SG47 B45:SG45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21 B52:SG52</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13:SG13 B43:SG43 B45:SG45 B49:SG49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B57:SG57</xm:sqref>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B35:SG35 B50:SG50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2706,8 +2653,8 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2751,23 +2698,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:SG4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:SG7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:SG3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:SG4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2777,13 +2724,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,375 +2739,364 @@
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>165</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="141">
+        <v>27171</v>
+      </c>
+      <c r="C8" s="141">
+        <v>28572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="144">
-        <v>27171</v>
-      </c>
-      <c r="C9" s="144">
-        <v>28572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="C12" s="110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="111" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+      <c r="B17" s="141">
+        <v>35939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+    </row>
+    <row r="19" spans="1:3" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="144">
-        <v>35939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    </row>
+    <row r="20" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="118" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="21" spans="1:3" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B21" s="119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="25" spans="1:3" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+    <row r="26" spans="1:3" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+      <c r="C26" s="121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+    <row r="28" spans="1:3" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="141">
+        <v>34091</v>
+      </c>
+      <c r="C28" s="141">
+        <v>34091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="125" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="144">
-        <v>34091</v>
-      </c>
-      <c r="C29" s="144">
-        <v>34091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+    </row>
+    <row r="31" spans="1:3" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    </row>
+    <row r="32" spans="1:3" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="128" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+    <row r="34" spans="1:3" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="129" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="131" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="35" spans="1:3" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="130" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="132" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+    <row r="36" spans="1:3" s="131" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="131" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
-        <v>191</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="135" t="s">
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="51" spans="1:3" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+      <c r="B51" s="133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="137">
+      <c r="B52" s="134">
         <v>2</v>
       </c>
-      <c r="C53" s="137">
+      <c r="C52" s="134">
         <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B38:SG38 B27:SG27 B14:SG15" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B37:SG37 B13:SG14 B26:SG26" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3171,31 +3107,31 @@
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:SG13 B22:SG22</xm:sqref>
+          <xm:sqref>B12:SG12 B21:SG21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B39:SG39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B51:SG51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B39:SG39 B41:SG43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B40:SG40</xm:sqref>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B38:SG38 B40:SG42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
+            <xm:f>Object!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B54:SG54 B46:SG47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3219,8 +3155,8 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3264,18 +3200,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="136" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="138" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3294,33 +3230,33 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:SG5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:SG11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
+          <x14:formula1>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:SG7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B4:SG4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:SG5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
-          <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
           <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
+            <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B14:SG14</xm:sqref>
         </x14:dataValidation>

--- a/src/test/resources/visitLinkTest.xlsx
+++ b/src/test/resources/visitLinkTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887085D-83C6-4F8B-9ACC-7EB64F5B19DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44ACB72-BEFD-4FD5-BAF9-A57C9F5C3CA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>architecturename</t>
+  </si>
+  <si>
+    <t>Ende</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2726,11 +2729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,10 +2966,16 @@
       <c r="A33" s="128" t="s">
         <v>186</v>
       </c>
+      <c r="C33" s="141">
+        <v>43359</v>
+      </c>
     </row>
     <row r="34" spans="1:3" s="129" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="129" t="s">
         <v>187</v>
+      </c>
+      <c r="C34" s="129" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="130" customFormat="1" x14ac:dyDescent="0.3">
